--- a/biology/Neurosciences/Nerf_radial/Nerf_radial.xlsx
+++ b/biology/Neurosciences/Nerf_radial/Nerf_radial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf radial est un nerf sensitif et moteur du bras. C'est le nerf de l'extension et de la supination de l'avant bras.
 </t>
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf radial est la plus grosse branche terminale du plexus brachial. 
 C'est la branche terminale postérieure issue du faisceau postérieur du plexus brachial après le le départ du nerf axillaire et en arrière du muscle petit pectoral. Ces fibres sont issues de C5, C6, C7, C8 et T1.
@@ -543,11 +557,48 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf radial descend dans le creux axillaire, passe dans la loge brachiale postérieure dans le sillon du nerf radial de la face postérieure de l'humérus et se termine dans le sillon bicipital latéral par une branche antérieure, le rameau superficiel du nerf radial, et une branche postérieure, le rameau profond du nerf radial.
-Creux axillaire
-À l'avant, le nerf radial est séparé des muscles petit et grand pectoraux par l'artère axillaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nerf_radial</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Creux axillaire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'avant, le nerf radial est séparé des muscles petit et grand pectoraux par l'artère axillaire.
 À l'arrière, ile est en contact avec le muscle subscapulaire, le long chef du muscle triceps brachial, le muscle petit rond, le muscle grand rond et le muscle grand dorsal.
 En dedans il est séparé de la cage thoracique par le muscle dentelé antérieur et en dehors il est en contact avec le muscle coracobrachial.
 Le nerf radial est le plus postérieur du faisceau vasculo-nerveux axillaire composé :
@@ -562,41 +613,148 @@
 du nerf cutané médial de l'avant-bras,
 du nerf musculocutané.
 Il quitte le creux axillaire en passant entre le long chef du muscle triceps brachial en dedans, l'humérus en dehors et le tendon du muscle grand dorsal en haut.
-Bras
-Dans le bras, le nerf radial se dirige obliquement en bas et en dedans dans le sillon du nerf radial, accompagné de l'artère profonde du bras et de ses veines satellites. Il est recouvert en arrière par le muscle triceps brachial.
-Coude
-Au-dessus de l'épicondyle latéral de l'humérus, il traverse le septum intermusculaire latéral du bras pour passer dans la loge brachiale antérieure dans le sillon bicipital latéral.
-Terminaison
-Dans la gouttière bicipitale latérale à un niveau variable, il se termine en deux branches terminales : le rameau superficiel du nerf radial antérieur et sensitif, et le rameau profond du nerf radial postérieur et moteur.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nerf_radial</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_radial</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bras</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le bras, le nerf radial se dirige obliquement en bas et en dedans dans le sillon du nerf radial, accompagné de l'artère profonde du bras et de ses veines satellites. Il est recouvert en arrière par le muscle triceps brachial.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_radial</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Coude</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au-dessus de l'épicondyle latéral de l'humérus, il traverse le septum intermusculaire latéral du bras pour passer dans la loge brachiale antérieure dans le sillon bicipital latéral.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nerf_radial</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Terminaison</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la gouttière bicipitale latérale à un niveau variable, il se termine en deux branches terminales : le rameau superficiel du nerf radial antérieur et sensitif, et le rameau profond du nerf radial postérieur et moteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nerf_radial</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Branches collatérales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le nerf radial donne des branches sensitives :
 au niveau du creux axillaire, le nerf cutané postérieur du bras innervant la face postéro-interne du bras,
@@ -613,34 +771,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nerf_radial</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nerf_radial</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Innervation motrice
-Le nerf radial est le nerf de l'extension et de la supination de l'avant bras.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Innervation motrice</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le nerf radial est le nerf de l'extension et de la supination de l'avant bras.
 Il innerve par ses ramifications :
 les trois chefs du muscle triceps brachial (par quatre nerfs),
 le muscle anconé,
@@ -654,9 +817,43 @@
 le muscle extenseur de l'index,
 le muscle extenseur du petit doigt,
 le muscle extenseur des doigts,
-le muscle extenseur ulnaire du carpe.
-Innervation sensitive
-Les territoires sensitifs dépendant du nerf radial sont
+le muscle extenseur ulnaire du carpe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nerf_radial</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Zone d'innervation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Innervation sensitive</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les territoires sensitifs dépendant du nerf radial sont
 la face postéro-médiane du bras,
 la partie centrale de face postérieure de l'avant-bras,
 la face postéro-médiane du poignet,
@@ -668,34 +865,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nerf_radial</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nerf_radial</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_radial</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Une lésion du nerf radial peut être d'origine traumatique ou neuropathique (en) (neuropathies diabétique, alcoolique et carentielle, saturnisme, vascularites nécrosantes, par compression…). 
-L'origine traumatique peut être une fracture, en particulier humérale, car l'humérus et le nerf sont proches au niveau du sillon du nerf radial. L'origine neuropathique peut être une compression externe du nerf (paralysie ou syndrome des amoureux de banc public, syndrome de la lune de miel, syndrome du samedi soir par malposition du bras — sur un dossier dur, une marche d'escalier ou du fait d’un bras ballant hors du lit — secondaire à la prise d'alcool, de stupéfiants ou de somnifères)[1].
+L'origine traumatique peut être une fracture, en particulier humérale, car l'humérus et le nerf sont proches au niveau du sillon du nerf radial. L'origine neuropathique peut être une compression externe du nerf (paralysie ou syndrome des amoureux de banc public, syndrome de la lune de miel, syndrome du samedi soir par malposition du bras — sur un dossier dur, une marche d'escalier ou du fait d’un bras ballant hors du lit — secondaire à la prise d'alcool, de stupéfiants ou de somnifères).
 Les symptômes d'une atteinte du nerf radial dépendent du niveau de la lésion.
 Une lésion axillaire entraîne des déficits moteurs de l'ensemble des muscles dépendant du nerf radial. Cela se manifeste par une perte d'extension de l'avant-bras, une faiblesse de la supination et une perte d'extension de la main et des doigts. Au niveau sensitif, il y a une perte de sensation de l'ensemble de la zone innervé par le radial.
 Cela se manifeste par une attitude du membre supérieur spécifique :
